--- a/data/trans_orig/P64S_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04868A90-A672-4AF4-95ED-6300DBD1013A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57C7DCF-FE5F-46F6-AB15-92FFB99C7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A28E7414-7D5B-476A-AE81-2653A85D927F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{96CDD28B-FB9B-44EF-AA4C-9E80BAEB7AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="342">
   <si>
     <t>Población según el modo de desplazamiento desde su casa al centro de trabajo/estudios en 2023 (Tasa respuesta: 42,39%)</t>
   </si>
@@ -92,1021 +92,973 @@
     <t>Andando y Vehículo particular</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>Andando y Transporte público</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>Andando y No realiza trayectos</t>
+  </si>
+  <si>
+    <t>Vehículo particular y No realiza trayectos</t>
+  </si>
+  <si>
+    <t>En bicicleta y Vehículo particular</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>En bicicleta y transporte público</t>
+  </si>
+  <si>
+    <t>Vehículo particular y transporte público</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>Vehículo particular y Otros medios</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>No realiza trayectos</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>Otros medios</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Transporte público</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>Vehículo particular</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>Andando</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>Andando y No realiza trayectos</t>
-  </si>
-  <si>
-    <t>Vehículo particular y No realiza trayectos</t>
-  </si>
-  <si>
-    <t>En bicicleta y Vehículo particular</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>En bicicleta y transporte público</t>
-  </si>
-  <si>
-    <t>Vehículo particular y transporte público</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>Vehículo particular y Otros medios</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>No realiza trayectos</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Otros medios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Transporte público</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>Vehículo particular</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Andando</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1521,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641902D9-C6A6-4112-953B-6C0D018BABCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBD942C-CD95-4C7B-860D-1543444EB0E8}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1744,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1781</v>
+        <v>1716</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -1759,88 +1711,88 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>3164</v>
+        <v>2976</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>4945</v>
+        <v>4692</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1323</v>
+        <v>1216</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>10595</v>
+        <v>8223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>11918</v>
+        <v>9439</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1891,7 +1843,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1942,22 +1894,22 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1978,22 +1930,22 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2044,73 +1996,73 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>4666</v>
+        <v>4011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1931</v>
+        <v>1615</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>6596</v>
+        <v>5625</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2131,88 +2083,88 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7">
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>3550</v>
+        <v>3316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>3656</v>
+        <v>3349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
       </c>
       <c r="N14" s="7">
-        <v>7206</v>
+        <v>6665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2233,139 +2185,139 @@
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>915</v>
+        <v>846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>8150</v>
+        <v>7195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>9065</v>
+        <v>8041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7">
         <v>100</v>
       </c>
       <c r="D17" s="7">
-        <v>101740</v>
+        <v>101699</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>27759</v>
+        <v>25838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
       </c>
       <c r="N17" s="7">
-        <v>129498</v>
+        <v>127536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>1393</v>
+        <v>1365</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2386,67 +2338,67 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>1393</v>
+        <v>1365</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7">
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>17341</v>
+        <v>16449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>33913</v>
+        <v>31250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
       </c>
       <c r="N19" s="7">
-        <v>51254</v>
+        <v>47699</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,51 +2410,51 @@
         <v>142</v>
       </c>
       <c r="D20" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>121</v>
       </c>
       <c r="I20" s="7">
-        <v>89167</v>
+        <v>80447</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
       </c>
       <c r="N20" s="7">
-        <v>223364</v>
+        <v>212550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
@@ -2520,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2535,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2550,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2523,13 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1064</v>
+        <v>851</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>106</v>
@@ -2592,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1064</v>
+        <v>851</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>108</v>
@@ -2613,22 +2565,22 @@
         <v>81</v>
       </c>
       <c r="D23" s="7">
-        <v>73928</v>
+        <v>72058</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>120</v>
       </c>
       <c r="I23" s="7">
-        <v>72755</v>
+        <v>67319</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>112</v>
@@ -2643,7 +2595,7 @@
         <v>201</v>
       </c>
       <c r="N23" s="7">
-        <v>146684</v>
+        <v>139376</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>115</v>
@@ -2652,22 +2604,22 @@
         <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>36423</v>
+        <v>31256</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>118</v>
@@ -2679,37 +2631,37 @@
         <v>47</v>
       </c>
       <c r="I24" s="7">
-        <v>35975</v>
+        <v>30171</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>120</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
       </c>
       <c r="N24" s="7">
-        <v>72399</v>
+        <v>61426</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2724,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2739,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2754,13 +2706,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2775,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2790,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2805,28 +2757,28 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>2099</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2841,121 +2793,121 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>2099</v>
+        <v>2000</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2409</v>
+        <v>2506</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>751</v>
+        <v>636</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>3160</v>
+        <v>3142</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
         <v>20</v>
       </c>
       <c r="D29" s="7">
-        <v>24345</v>
+        <v>22047</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
       </c>
       <c r="I29" s="7">
-        <v>23150</v>
+        <v>20622</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
       </c>
       <c r="N29" s="7">
-        <v>47495</v>
+        <v>42668</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>139</v>
@@ -2964,358 +2916,358 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>4328</v>
+        <v>4355</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>1894</v>
+        <v>1802</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>6222</v>
+        <v>6157</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>106</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
       </c>
       <c r="D31" s="7">
-        <v>29811</v>
+        <v>28988</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
       </c>
       <c r="I31" s="7">
-        <v>28277</v>
+        <v>25675</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
       </c>
       <c r="N31" s="7">
-        <v>58088</v>
+        <v>54663</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="7">
         <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>6985</v>
+        <v>6739</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>3166</v>
+        <v>2989</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
       </c>
       <c r="N32" s="7">
-        <v>10151</v>
+        <v>9728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" s="7">
         <v>39</v>
       </c>
       <c r="D33" s="7">
-        <v>40977</v>
+        <v>36647</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
       </c>
       <c r="I33" s="7">
-        <v>49804</v>
+        <v>43521</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
       </c>
       <c r="N33" s="7">
-        <v>90781</v>
+        <v>80167</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C34" s="7">
         <v>728</v>
       </c>
       <c r="D34" s="7">
-        <v>848942</v>
+        <v>1020538</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H34" s="7">
         <v>627</v>
       </c>
       <c r="I34" s="7">
-        <v>473865</v>
+        <v>465043</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M34" s="7">
         <v>1355</v>
       </c>
       <c r="N34" s="7">
-        <v>1322807</v>
+        <v>1485581</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35" s="7">
         <v>12</v>
       </c>
       <c r="D35" s="7">
-        <v>11356</v>
+        <v>10079</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
       </c>
       <c r="I35" s="7">
-        <v>18658</v>
+        <v>72709</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M35" s="7">
         <v>21</v>
       </c>
       <c r="N35" s="7">
-        <v>30013</v>
+        <v>82788</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" s="7">
         <v>136</v>
       </c>
       <c r="D36" s="7">
-        <v>154369</v>
+        <v>145170</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>323</v>
       </c>
       <c r="I36" s="7">
-        <v>233431</v>
+        <v>213628</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M36" s="7">
         <v>459</v>
       </c>
       <c r="N36" s="7">
-        <v>387801</v>
+        <v>358798</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,51 +3279,51 @@
         <v>1092</v>
       </c>
       <c r="D37" s="7">
-        <v>1235973</v>
+        <v>1382383</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H37" s="7">
         <v>1265</v>
       </c>
       <c r="I37" s="7">
-        <v>942791</v>
+        <v>944963</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M37" s="7">
         <v>2357</v>
       </c>
       <c r="N37" s="7">
-        <v>2178764</v>
+        <v>2327346</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>10</v>
@@ -3380,16 +3332,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3404,22 +3356,22 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,16 +3383,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>1035</v>
+        <v>999</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3455,22 +3407,22 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>1035</v>
+        <v>999</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,25 +3434,25 @@
         <v>33</v>
       </c>
       <c r="D40" s="7">
-        <v>25429</v>
+        <v>23898</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H40" s="7">
         <v>76</v>
       </c>
       <c r="I40" s="7">
-        <v>47559</v>
+        <v>44003</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>203</v>
@@ -3512,124 +3464,124 @@
         <v>109</v>
       </c>
       <c r="N40" s="7">
-        <v>72988</v>
+        <v>67901</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7">
         <v>9</v>
       </c>
       <c r="D41" s="7">
-        <v>11777</v>
+        <v>10544</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
       </c>
       <c r="I41" s="7">
-        <v>11072</v>
+        <v>9820</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
       </c>
       <c r="N41" s="7">
-        <v>22849</v>
+        <v>20365</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>1821</v>
+        <v>1936</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>808</v>
+        <v>699</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
       </c>
       <c r="N42" s="7">
-        <v>2630</v>
+        <v>2635</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3644,58 +3596,58 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
       </c>
       <c r="I43" s="7">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>1735</v>
+        <v>1875</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3710,28 +3662,28 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>1735</v>
+        <v>1875</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3746,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3761,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3776,415 +3728,415 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="7">
         <v>9</v>
       </c>
       <c r="D46" s="7">
-        <v>10288</v>
+        <v>9509</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H46" s="7">
         <v>19</v>
       </c>
       <c r="I46" s="7">
-        <v>15272</v>
+        <v>13590</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M46" s="7">
         <v>28</v>
       </c>
       <c r="N46" s="7">
-        <v>25561</v>
+        <v>23099</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>1228</v>
+        <v>1250</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
       </c>
       <c r="I47" s="7">
-        <v>3080</v>
+        <v>2847</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
       <c r="N47" s="7">
-        <v>4309</v>
+        <v>4096</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C48" s="7">
         <v>36</v>
       </c>
       <c r="D48" s="7">
-        <v>41029</v>
+        <v>39146</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
       </c>
       <c r="I48" s="7">
-        <v>23801</v>
+        <v>21705</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M48" s="7">
         <v>67</v>
       </c>
       <c r="N48" s="7">
-        <v>64831</v>
+        <v>60851</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C49" s="7">
         <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>2981</v>
+        <v>2843</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>1622</v>
+        <v>1483</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
       </c>
       <c r="N49" s="7">
-        <v>4603</v>
+        <v>4326</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7">
         <v>9</v>
       </c>
       <c r="D50" s="7">
-        <v>8705</v>
+        <v>8412</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H50" s="7">
         <v>19</v>
       </c>
       <c r="I50" s="7">
-        <v>14301</v>
+        <v>13251</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M50" s="7">
         <v>28</v>
       </c>
       <c r="N50" s="7">
-        <v>23007</v>
+        <v>21663</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C51" s="7">
         <v>242</v>
       </c>
       <c r="D51" s="7">
-        <v>269477</v>
+        <v>263373</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H51" s="7">
         <v>333</v>
       </c>
       <c r="I51" s="7">
-        <v>249275</v>
+        <v>233180</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M51" s="7">
         <v>575</v>
       </c>
       <c r="N51" s="7">
-        <v>518752</v>
+        <v>496553</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C52" s="7">
         <v>6</v>
       </c>
       <c r="D52" s="7">
-        <v>6504</v>
+        <v>5813</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H52" s="7">
         <v>10</v>
       </c>
       <c r="I52" s="7">
-        <v>5455</v>
+        <v>4984</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="M52" s="7">
         <v>16</v>
       </c>
       <c r="N52" s="7">
-        <v>11959</v>
+        <v>10798</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C53" s="7">
         <v>80</v>
       </c>
       <c r="D53" s="7">
-        <v>80692</v>
+        <v>77519</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H53" s="7">
         <v>137</v>
       </c>
       <c r="I53" s="7">
-        <v>96049</v>
+        <v>88988</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M53" s="7">
         <v>217</v>
       </c>
       <c r="N53" s="7">
-        <v>176742</v>
+        <v>166506</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,46 +4148,46 @@
         <v>433</v>
       </c>
       <c r="D54" s="7">
-        <v>462862</v>
+        <v>447280</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H54" s="7">
         <v>646</v>
       </c>
       <c r="I54" s="7">
-        <v>469137</v>
+        <v>435359</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M54" s="7">
         <v>1079</v>
       </c>
       <c r="N54" s="7">
-        <v>931999</v>
+        <v>882639</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4201,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4273,13 +4225,13 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>11</v>
@@ -4288,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,46 +4252,46 @@
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>1035</v>
+        <v>999</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
       </c>
       <c r="I56" s="7">
-        <v>1064</v>
+        <v>851</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
       </c>
       <c r="N56" s="7">
-        <v>2100</v>
+        <v>1850</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,154 +4303,154 @@
         <v>116</v>
       </c>
       <c r="D57" s="7">
-        <v>101139</v>
+        <v>97671</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H57" s="7">
         <v>201</v>
       </c>
       <c r="I57" s="7">
-        <v>123478</v>
+        <v>114299</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M57" s="7">
         <v>317</v>
       </c>
       <c r="N57" s="7">
-        <v>224616</v>
+        <v>211970</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" s="7">
         <v>46</v>
       </c>
       <c r="D58" s="7">
-        <v>49523</v>
+        <v>43015</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H58" s="7">
         <v>67</v>
       </c>
       <c r="I58" s="7">
-        <v>57642</v>
+        <v>48214</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>297</v>
+        <v>165</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M58" s="7">
         <v>113</v>
       </c>
       <c r="N58" s="7">
-        <v>107165</v>
+        <v>91230</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>1821</v>
+        <v>1936</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>808</v>
+        <v>699</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
       </c>
       <c r="N59" s="7">
-        <v>2630</v>
+        <v>2635</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" s="7">
         <v>0</v>
@@ -4513,28 +4465,28 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
       </c>
       <c r="I60" s="7">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
       </c>
       <c r="N60" s="7">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>194</v>
@@ -4543,28 +4495,28 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" s="7">
         <v>5</v>
       </c>
       <c r="D61" s="7">
-        <v>3993</v>
+        <v>4043</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4579,49 +4531,49 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="M61" s="7">
         <v>5</v>
       </c>
       <c r="N61" s="7">
-        <v>3993</v>
+        <v>4043</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>2409</v>
+        <v>2506</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
       </c>
       <c r="I62" s="7">
-        <v>751</v>
+        <v>636</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>108</v>
@@ -4630,430 +4582,430 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
       </c>
       <c r="N62" s="7">
-        <v>3160</v>
+        <v>3142</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C63" s="7">
         <v>34</v>
       </c>
       <c r="D63" s="7">
-        <v>39299</v>
+        <v>35566</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="H63" s="7">
         <v>49</v>
       </c>
       <c r="I63" s="7">
-        <v>40353</v>
+        <v>35826</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="M63" s="7">
         <v>83</v>
       </c>
       <c r="N63" s="7">
-        <v>79652</v>
+        <v>71392</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C64" s="7">
         <v>6</v>
       </c>
       <c r="D64" s="7">
-        <v>6725</v>
+        <v>6761</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H64" s="7">
         <v>5</v>
       </c>
       <c r="I64" s="7">
-        <v>4974</v>
+        <v>4649</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M64" s="7">
         <v>11</v>
       </c>
       <c r="N64" s="7">
-        <v>11699</v>
+        <v>11410</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C65" s="7">
         <v>67</v>
       </c>
       <c r="D65" s="7">
-        <v>74390</v>
+        <v>71450</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="H65" s="7">
         <v>81</v>
       </c>
       <c r="I65" s="7">
-        <v>55735</v>
+        <v>50729</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>317</v>
+        <v>123</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="M65" s="7">
         <v>148</v>
       </c>
       <c r="N65" s="7">
-        <v>130125</v>
+        <v>122179</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>322</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C66" s="7">
         <v>12</v>
       </c>
       <c r="D66" s="7">
-        <v>10126</v>
+        <v>9745</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="H66" s="7">
         <v>7</v>
       </c>
       <c r="I66" s="7">
-        <v>4788</v>
+        <v>4472</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="M66" s="7">
         <v>19</v>
       </c>
       <c r="N66" s="7">
-        <v>14914</v>
+        <v>14217</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C67" s="7">
         <v>50</v>
       </c>
       <c r="D67" s="7">
-        <v>50598</v>
+        <v>45904</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H67" s="7">
         <v>91</v>
       </c>
       <c r="I67" s="7">
-        <v>72255</v>
+        <v>63967</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="M67" s="7">
         <v>141</v>
       </c>
       <c r="N67" s="7">
-        <v>122853</v>
+        <v>109871</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C68" s="7">
         <v>1070</v>
       </c>
       <c r="D68" s="7">
-        <v>1220159</v>
+        <v>1385609</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="H68" s="7">
         <v>999</v>
       </c>
       <c r="I68" s="7">
-        <v>750899</v>
+        <v>724061</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="M68" s="7">
         <v>2069</v>
       </c>
       <c r="N68" s="7">
-        <v>1971057</v>
+        <v>2109670</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C69" s="7">
         <v>21</v>
       </c>
       <c r="D69" s="7">
-        <v>19253</v>
+        <v>17257</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="H69" s="7">
         <v>19</v>
       </c>
       <c r="I69" s="7">
-        <v>24112</v>
+        <v>77693</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M69" s="7">
         <v>40</v>
       </c>
       <c r="N69" s="7">
-        <v>43365</v>
+        <v>94950</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="7">
         <v>236</v>
       </c>
       <c r="D70" s="7">
-        <v>252403</v>
+        <v>239138</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H70" s="7">
         <v>508</v>
       </c>
       <c r="I70" s="7">
-        <v>363393</v>
+        <v>333866</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M70" s="7">
         <v>744</v>
       </c>
       <c r="N70" s="7">
-        <v>615797</v>
+        <v>573003</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,51 +5017,51 @@
         <v>1667</v>
       </c>
       <c r="D71" s="7">
-        <v>1833033</v>
+        <v>1961766</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H71" s="7">
         <v>2032</v>
       </c>
       <c r="I71" s="7">
-        <v>1501094</v>
+        <v>1460769</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M71" s="7">
         <v>3699</v>
       </c>
       <c r="N71" s="7">
-        <v>3334127</v>
+        <v>3422535</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
